--- a/REGULAR/OJT/NEW DONE/DELA CRUZ, SHEILA G..xlsx
+++ b/REGULAR/OJT/NEW DONE/DELA CRUZ, SHEILA G..xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1910,10 +1910,10 @@
   </sheetPr>
   <dimension ref="A2:K491"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A430" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A436" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B444" sqref="B444"/>
+      <selection pane="bottomLeft" activeCell="C441" sqref="C441:C442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2077,7 +2077,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>102.05999999999995</v>
+        <v>103.30999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2087,7 +2087,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>211.42500000000001</v>
+        <v>212.67500000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11509,13 +11509,15 @@
       <c r="B442" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C442" s="13"/>
+      <c r="C442" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D442" s="39"/>
       <c r="E442" s="9"/>
       <c r="F442" s="20"/>
-      <c r="G442" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G442" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H442" s="39">
         <v>2</v>
@@ -12404,7 +12406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -12527,7 +12529,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>313.48499999999996</v>
+        <v>315.98499999999996</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
